--- a/results/ugrad-009-01/ugrad-009-01-ml-10-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-ml-10-20.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5200458E-4C81-4DD5-AB36-721F92A1007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F0D78B-4C2F-4BF4-BCF8-10D45436D70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-ml-10-20" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Design</t>
   </si>
@@ -33,11 +47,14 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,34 +740,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98275862068965503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.97014925373134298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92</c:v>
+                  <c:v>0.95522388059701402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95</c:v>
+                  <c:v>0.939393939393939</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95</c:v>
+                  <c:v>0.939393939393939</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97</c:v>
+                  <c:v>0.971830985915493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97</c:v>
+                  <c:v>0.97260273972602695</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98245614035087703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +857,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.97894736842105201</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -849,7 +866,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97</c:v>
+                  <c:v>0.97435897435897401</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -945,34 +962,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.06</c:v>
+                  <c:v>1.06666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.06</c:v>
+                  <c:v>1.1428571428571399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.54</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.18</c:v>
+                  <c:v>1.36363636363636</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.25</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.18</c:v>
+                  <c:v>1.28571428571428</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.07</c:v>
+                  <c:v>1.07692307692307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,11 +2096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,13 +2121,16 @@
         <v>1010</v>
       </c>
       <c r="B2" s="1">
-        <v>0.98</v>
+        <f>raw!A12</f>
+        <v>0.98275862068965503</v>
       </c>
       <c r="C2" s="1">
+        <f>raw!B12</f>
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.06</v>
+        <f>raw!C12</f>
+        <v>1.06666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,13 +2138,16 @@
         <v>1011</v>
       </c>
       <c r="B3" s="1">
-        <v>0.98</v>
+        <f>raw!A13</f>
+        <v>0.97014925373134298</v>
       </c>
       <c r="C3" s="1">
+        <f>raw!B13</f>
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1.06</v>
+        <f>raw!C13</f>
+        <v>1.1428571428571399</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,13 +2155,16 @@
         <v>1012</v>
       </c>
       <c r="B4" s="1">
-        <v>0.92</v>
+        <f>raw!A14</f>
+        <v>0.95522388059701402</v>
       </c>
       <c r="C4" s="1">
-        <v>0.98</v>
+        <f>raw!B14</f>
+        <v>0.97894736842105201</v>
       </c>
       <c r="D4" s="1">
-        <v>1.54</v>
+        <f>raw!C14</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2146,13 +2172,16 @@
         <v>1013</v>
       </c>
       <c r="B5" s="1">
-        <v>0.95</v>
+        <f>raw!A15</f>
+        <v>0.939393939393939</v>
       </c>
       <c r="C5" s="1">
+        <f>raw!B15</f>
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1.18</v>
+        <f>raw!C15</f>
+        <v>1.36363636363636</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,12 +2189,15 @@
         <v>1014</v>
       </c>
       <c r="B6" s="1">
+        <f>raw!A16</f>
         <v>1</v>
       </c>
       <c r="C6" s="1">
+        <f>raw!B16</f>
         <v>1</v>
       </c>
       <c r="D6" s="1">
+        <f>raw!C16</f>
         <v>1</v>
       </c>
     </row>
@@ -2174,13 +2206,16 @@
         <v>1015</v>
       </c>
       <c r="B7" s="1">
-        <v>0.95</v>
+        <f>raw!A17</f>
+        <v>0.939393939393939</v>
       </c>
       <c r="C7" s="1">
-        <v>0.97</v>
+        <f>raw!B17</f>
+        <v>0.97435897435897401</v>
       </c>
       <c r="D7" s="1">
-        <v>1.5</v>
+        <f>raw!C17</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,13 +2223,16 @@
         <v>1016</v>
       </c>
       <c r="B8" s="1">
-        <v>0.97</v>
+        <f>raw!A18</f>
+        <v>0.971830985915493</v>
       </c>
       <c r="C8" s="1">
+        <f>raw!B18</f>
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1.25</v>
+        <f>raw!C18</f>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2202,13 +2240,16 @@
         <v>1017</v>
       </c>
       <c r="B9" s="1">
-        <v>0.97</v>
+        <f>raw!A19</f>
+        <v>0.97260273972602695</v>
       </c>
       <c r="C9" s="1">
+        <f>raw!B19</f>
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1.18</v>
+        <f>raw!C19</f>
+        <v>1.28571428571428</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,12 +2257,15 @@
         <v>1018</v>
       </c>
       <c r="B10" s="1">
+        <f>raw!A20</f>
         <v>1</v>
       </c>
       <c r="C10" s="1">
+        <f>raw!B20</f>
         <v>1</v>
       </c>
       <c r="D10" s="1">
+        <f>raw!C20</f>
         <v>1</v>
       </c>
     </row>
@@ -2230,13 +2274,16 @@
         <v>1019</v>
       </c>
       <c r="B11" s="1">
-        <v>0.98</v>
+        <f>raw!A21</f>
+        <v>0.98245614035087703</v>
       </c>
       <c r="C11" s="1">
+        <f>raw!B21</f>
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1.07</v>
+        <f>raw!C21</f>
+        <v>1.07692307692307</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,17 +2291,335 @@
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>0.97</v>
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.97138094997982871</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <f t="shared" ref="C12:D12" si="0">AVERAGE(C2:C11)</f>
+        <v>0.99533063427800261</v>
       </c>
       <c r="D12" s="1">
-        <v>1.18</v>
+        <f t="shared" si="0"/>
+        <v>1.2835797535797508</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f>raw!C12</f>
+        <v>1.06666666666666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991420FF-BD90-4835-AC03-B827B09BF49D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.98275862068965503</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.97014925373134298</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1.1428571428571399</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.95522388059701402</v>
+      </c>
+      <c r="B14">
+        <v>0.97894736842105201</v>
+      </c>
+      <c r="C14">
+        <v>1.5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.939393939393939</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.939393939393939</v>
+      </c>
+      <c r="B17">
+        <v>0.97435897435897401</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.971830985915493</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1.4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.97260273972602695</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1.28571428571428</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.98245614035087703</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1.07692307692307</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/ugrad-009-01/ugrad-009-01-ml-10-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-ml-10-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F0D78B-4C2F-4BF4-BCF8-10D45436D70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5132CF93-43EE-4A85-A393-8942FD2819CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-ml-10-20" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
                   <c:v>0.97014925373134298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95522388059701402</c:v>
+                  <c:v>0.94117647058823495</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.939393939393939</c:v>
@@ -968,7 +968,7 @@
                   <c:v>1.1428571428571399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>1.6666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.36363636363636</c:v>
@@ -2099,7 +2099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B4" s="1">
         <f>raw!A14</f>
-        <v>0.95522388059701402</v>
+        <v>0.94117647058823495</v>
       </c>
       <c r="C4" s="1">
         <f>raw!B14</f>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="D4" s="1">
         <f>raw!C14</f>
-        <v>1.5</v>
+        <v>1.6666666666666601</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B12" s="1">
         <f>AVERAGE(B2:B11)</f>
-        <v>0.97138094997982871</v>
+        <v>0.96997620897895087</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ref="C12:D12" si="0">AVERAGE(C2:C11)</f>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1.2835797535797508</v>
+        <v>1.3002464202464168</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
@@ -2319,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991420FF-BD90-4835-AC03-B827B09BF49D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.95522388059701402</v>
+        <v>0.94117647058823495</v>
       </c>
       <c r="B14">
         <v>0.97894736842105201</v>
       </c>
       <c r="C14">
-        <v>1.5</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="D14">
         <v>1</v>
